--- a/inventario/Plugin/Excel/Vale/Solicitud Vale.xlsx
+++ b/inventario/Plugin/Excel/Vale/Solicitud Vale.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>No. Vale</t>
   </si>
@@ -35,13 +35,7 @@
     <t>Admin Master (Administrador)</t>
   </si>
   <si>
-    <t>2022-10-04</t>
-  </si>
-  <si>
-    <t>1 1 (Administrador)</t>
-  </si>
-  <si>
-    <t>2022-10-05</t>
+    <t>2022-10-07</t>
   </si>
   <si>
     <t>Baltazar Alexander Marinero Perez (Cliente)</t>
@@ -380,7 +374,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,21 +428,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
